--- a/DataRepo/example_data/data_submission_animal_sample_table.xlsx
+++ b/DataRepo/example_data/data_submission_animal_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/GoogleDrivePU/PROJECT/TRACEBASE/REPO/TraceBase/DataRepo/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAC7D57-4512-4342-BC5C-1CAA4347BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E3D6B5-A08E-8544-8E73-68BBA96C2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="1040" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -586,9 +586,6 @@
     <t>M1_15_ears</t>
   </si>
   <si>
-    <t>Matt McBride</t>
-  </si>
-  <si>
     <t>serum</t>
   </si>
   <si>
@@ -933,6 +930,9 @@
   <si>
     <t>Mice on serine and glycine free AA purified diet for 3 weeks</t>
   </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
 </sst>
 </file>
 
@@ -1228,7 +1228,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J2" sqref="J2:J3"/>
     </sheetView>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1717,9 +1717,9 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1783,13 +1783,13 @@
         <v>44077</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>17</v>
@@ -1813,13 +1813,13 @@
         <v>44077</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>17</v>
@@ -1843,13 +1843,13 @@
         <v>44077</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
@@ -1873,13 +1873,13 @@
         <v>44077</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>17</v>
@@ -1903,13 +1903,13 @@
         <v>44077</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>17</v>
@@ -1933,13 +1933,13 @@
         <v>44077</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>17</v>
@@ -1963,13 +1963,13 @@
         <v>44077</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
@@ -1993,13 +1993,13 @@
         <v>44077</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>17</v>
@@ -2023,13 +2023,13 @@
         <v>44077</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>17</v>
@@ -2053,13 +2053,13 @@
         <v>44077</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>17</v>
@@ -2083,13 +2083,13 @@
         <v>44077</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>17</v>
@@ -2113,13 +2113,13 @@
         <v>44077</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>17</v>
@@ -2143,13 +2143,13 @@
         <v>44077</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>17</v>
@@ -2173,13 +2173,13 @@
         <v>44077</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>17</v>
@@ -2203,13 +2203,13 @@
         <v>44077</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>17</v>
@@ -2233,13 +2233,13 @@
         <v>44077</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>17</v>
@@ -2257,19 +2257,19 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="12">
         <v>44077</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
@@ -2287,19 +2287,19 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="12">
         <v>44077</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
@@ -2317,19 +2317,19 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12">
         <v>44077</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>25</v>
@@ -2347,19 +2347,19 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="12">
         <v>44077</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>25</v>
@@ -2377,19 +2377,19 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="12">
         <v>44077</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>25</v>
@@ -2407,19 +2407,19 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="12">
         <v>44077</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>25</v>
@@ -2437,19 +2437,19 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="12">
         <v>44077</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>25</v>
@@ -2467,19 +2467,19 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="12">
         <v>44077</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>25</v>
@@ -2497,19 +2497,19 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="12">
         <v>44077</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>25</v>
@@ -2527,19 +2527,19 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="12">
         <v>44077</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="12">
         <v>44077</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>25</v>
@@ -2587,19 +2587,19 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="12">
         <v>44077</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>25</v>
@@ -2617,19 +2617,19 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="12">
         <v>44077</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>25</v>
@@ -2647,19 +2647,19 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="12">
         <v>44077</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -2677,19 +2677,19 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="12">
         <v>44077</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>25</v>
@@ -2707,19 +2707,19 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="12">
         <v>44077</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>25</v>
@@ -2737,19 +2737,19 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="12">
         <v>44077</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>27</v>
@@ -2767,19 +2767,19 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="12">
         <v>44077</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>27</v>
@@ -2797,19 +2797,19 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="12">
         <v>44077</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>27</v>
@@ -2827,19 +2827,19 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="12">
         <v>44077</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>27</v>
@@ -2857,19 +2857,19 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="12">
         <v>44077</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>27</v>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="12">
         <v>44077</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>27</v>
@@ -2917,19 +2917,19 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="12">
         <v>44077</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>27</v>
@@ -2947,19 +2947,19 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="12">
         <v>44077</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>27</v>
@@ -2977,19 +2977,19 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="12">
         <v>44077</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>27</v>
@@ -3007,19 +3007,19 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="12">
         <v>44077</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>27</v>
@@ -3037,19 +3037,19 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="12">
         <v>44077</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>27</v>
@@ -3067,19 +3067,19 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="12">
         <v>44077</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>27</v>
@@ -3097,19 +3097,19 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="12">
         <v>44077</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>27</v>
@@ -3127,19 +3127,19 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="12">
         <v>44077</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>27</v>
@@ -3157,19 +3157,19 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="12">
         <v>44077</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>27</v>
@@ -3187,19 +3187,19 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="12">
         <v>44077</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>27</v>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="12">
         <v>44077</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>28</v>
@@ -3247,19 +3247,19 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="12">
         <v>44077</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>28</v>
@@ -3277,19 +3277,19 @@
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="12">
         <v>44077</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>28</v>
@@ -3307,19 +3307,19 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="12">
         <v>44077</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>28</v>
@@ -3337,19 +3337,19 @@
     </row>
     <row r="54" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="12">
         <v>44077</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>28</v>
@@ -3367,19 +3367,19 @@
     </row>
     <row r="55" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="12">
         <v>44077</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>28</v>
@@ -3397,19 +3397,19 @@
     </row>
     <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="12">
         <v>44077</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>28</v>
@@ -3427,19 +3427,19 @@
     </row>
     <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="12">
         <v>44077</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>28</v>
@@ -3457,19 +3457,19 @@
     </row>
     <row r="58" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="12">
         <v>44077</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>28</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="59" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="12">
         <v>44077</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>28</v>
@@ -3517,19 +3517,19 @@
     </row>
     <row r="60" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="12">
         <v>44077</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>28</v>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="61" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" s="12">
         <v>44077</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>28</v>
@@ -3577,19 +3577,19 @@
     </row>
     <row r="62" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="12">
         <v>44077</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
@@ -3607,19 +3607,19 @@
     </row>
     <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="12">
         <v>44077</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>28</v>
@@ -3637,19 +3637,19 @@
     </row>
     <row r="64" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" s="12">
         <v>44077</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>28</v>
@@ -3667,19 +3667,19 @@
     </row>
     <row r="65" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="12">
         <v>44077</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>28</v>
@@ -3697,19 +3697,19 @@
     </row>
     <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="12">
         <v>44077</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>29</v>
@@ -3727,19 +3727,19 @@
     </row>
     <row r="67" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="12">
         <v>44077</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E67" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>29</v>
@@ -3757,19 +3757,19 @@
     </row>
     <row r="68" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="12">
         <v>44077</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>29</v>
@@ -3787,19 +3787,19 @@
     </row>
     <row r="69" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="12">
         <v>44077</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>29</v>
@@ -3817,19 +3817,19 @@
     </row>
     <row r="70" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="12">
         <v>44077</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>29</v>
@@ -3847,19 +3847,19 @@
     </row>
     <row r="71" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="12">
         <v>44077</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>29</v>
@@ -3877,19 +3877,19 @@
     </row>
     <row r="72" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" s="12">
         <v>44077</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>29</v>
@@ -3907,19 +3907,19 @@
     </row>
     <row r="73" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="12">
         <v>44077</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>29</v>
@@ -3937,19 +3937,19 @@
     </row>
     <row r="74" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="12">
         <v>44077</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>29</v>
@@ -3967,19 +3967,19 @@
     </row>
     <row r="75" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="12">
         <v>44077</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>29</v>
@@ -3997,19 +3997,19 @@
     </row>
     <row r="76" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="12">
         <v>44077</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>29</v>
@@ -4027,19 +4027,19 @@
     </row>
     <row r="77" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="12">
         <v>44077</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>29</v>
@@ -4057,19 +4057,19 @@
     </row>
     <row r="78" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="12">
         <v>44077</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>29</v>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="79" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="12">
         <v>44077</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>29</v>
@@ -4117,19 +4117,19 @@
     </row>
     <row r="80" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="12">
         <v>44077</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>29</v>
@@ -4147,19 +4147,19 @@
     </row>
     <row r="81" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="12">
         <v>44077</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>29</v>
@@ -4177,19 +4177,19 @@
     </row>
     <row r="82" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="12">
         <v>44077</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>30</v>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="83" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="12">
         <v>44077</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E83" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>30</v>
@@ -4237,19 +4237,19 @@
     </row>
     <row r="84" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" s="12">
         <v>44077</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>30</v>
@@ -4267,19 +4267,19 @@
     </row>
     <row r="85" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="12">
         <v>44077</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>30</v>
@@ -4297,19 +4297,19 @@
     </row>
     <row r="86" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="12">
         <v>44077</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>30</v>
@@ -4327,19 +4327,19 @@
     </row>
     <row r="87" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87" s="12">
         <v>44077</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>30</v>
@@ -4357,19 +4357,19 @@
     </row>
     <row r="88" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="12">
         <v>44077</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>30</v>
@@ -4387,19 +4387,19 @@
     </row>
     <row r="89" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="12">
         <v>44077</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>30</v>
@@ -4417,19 +4417,19 @@
     </row>
     <row r="90" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="12">
         <v>44077</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>30</v>
@@ -4447,19 +4447,19 @@
     </row>
     <row r="91" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="12">
         <v>44077</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>30</v>
@@ -4477,19 +4477,19 @@
     </row>
     <row r="92" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="12">
         <v>44077</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>30</v>
@@ -4507,19 +4507,19 @@
     </row>
     <row r="93" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="12">
         <v>44077</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>30</v>
@@ -4537,19 +4537,19 @@
     </row>
     <row r="94" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="12">
         <v>44077</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>30</v>
@@ -4567,19 +4567,19 @@
     </row>
     <row r="95" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="12">
         <v>44077</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>30</v>
@@ -4597,19 +4597,19 @@
     </row>
     <row r="96" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="12">
         <v>44077</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>30</v>
@@ -4627,19 +4627,19 @@
     </row>
     <row r="97" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="12">
         <v>44077</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>30</v>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="98" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="12">
         <v>44041</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E98" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -4687,22 +4687,22 @@
     </row>
     <row r="99" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="12">
         <v>44041</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -4723,16 +4723,16 @@
         <v>44041</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -4753,16 +4753,16 @@
         <v>44041</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -4783,16 +4783,16 @@
         <v>44041</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -4813,16 +4813,16 @@
         <v>44041</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -4843,16 +4843,16 @@
         <v>44041</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -4873,16 +4873,16 @@
         <v>44041</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -4903,16 +4903,16 @@
         <v>44041</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -4933,16 +4933,16 @@
         <v>44041</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -4963,16 +4963,16 @@
         <v>44041</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -4993,16 +4993,16 @@
         <v>44041</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -5023,16 +5023,16 @@
         <v>44041</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -5053,16 +5053,16 @@
         <v>44041</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -5083,16 +5083,16 @@
         <v>44041</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -5107,22 +5107,22 @@
     </row>
     <row r="113" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="12">
         <v>44041</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E113" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -5137,22 +5137,22 @@
     </row>
     <row r="114" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" s="12">
         <v>44041</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -5167,22 +5167,22 @@
     </row>
     <row r="115" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B115" s="12">
         <v>44041</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -5197,22 +5197,22 @@
     </row>
     <row r="116" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B116" s="12">
         <v>44041</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -5227,22 +5227,22 @@
     </row>
     <row r="117" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B117" s="12">
         <v>44041</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -5257,22 +5257,22 @@
     </row>
     <row r="118" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B118" s="12">
         <v>44041</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -5287,22 +5287,22 @@
     </row>
     <row r="119" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B119" s="12">
         <v>44041</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -5317,22 +5317,22 @@
     </row>
     <row r="120" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B120" s="12">
         <v>44041</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -5347,22 +5347,22 @@
     </row>
     <row r="121" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B121" s="12">
         <v>44041</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -5377,22 +5377,22 @@
     </row>
     <row r="122" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B122" s="12">
         <v>44041</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -5407,22 +5407,22 @@
     </row>
     <row r="123" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123" s="12">
         <v>44041</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -5437,22 +5437,22 @@
     </row>
     <row r="124" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B124" s="12">
         <v>44041</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -5467,22 +5467,22 @@
     </row>
     <row r="125" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B125" s="12">
         <v>44041</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="126" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="12">
         <v>44041</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -5527,22 +5527,22 @@
     </row>
     <row r="127" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" s="12">
         <v>44041</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E127" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="128" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" s="12">
         <v>44041</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -5587,22 +5587,22 @@
     </row>
     <row r="129" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B129" s="12">
         <v>44041</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -5617,22 +5617,22 @@
     </row>
     <row r="130" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B130" s="12">
         <v>44041</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -5647,22 +5647,22 @@
     </row>
     <row r="131" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B131" s="12">
         <v>44041</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -5677,22 +5677,22 @@
     </row>
     <row r="132" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B132" s="12">
         <v>44041</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -5707,22 +5707,22 @@
     </row>
     <row r="133" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133" s="12">
         <v>44041</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -5737,22 +5737,22 @@
     </row>
     <row r="134" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B134" s="12">
         <v>44041</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -5767,22 +5767,22 @@
     </row>
     <row r="135" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="12">
         <v>44041</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="136" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B136" s="12">
         <v>44041</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -5827,22 +5827,22 @@
     </row>
     <row r="137" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="12">
         <v>44041</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -5857,22 +5857,22 @@
     </row>
     <row r="138" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B138" s="12">
         <v>44041</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -5887,22 +5887,22 @@
     </row>
     <row r="139" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B139" s="12">
         <v>44041</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -5917,22 +5917,22 @@
     </row>
     <row r="140" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" s="12">
         <v>44041</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -5947,22 +5947,22 @@
     </row>
     <row r="141" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="12">
         <v>44055</v>
       </c>
       <c r="C141" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F141" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -5977,22 +5977,22 @@
     </row>
     <row r="142" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" s="12">
         <v>44055</v>
       </c>
       <c r="C142" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E142" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -6007,22 +6007,22 @@
     </row>
     <row r="143" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" s="12">
         <v>44055</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -6043,16 +6043,16 @@
         <v>44055</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -6073,16 +6073,16 @@
         <v>44055</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -6103,16 +6103,16 @@
         <v>44055</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -6133,16 +6133,16 @@
         <v>44055</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -6163,16 +6163,16 @@
         <v>44055</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -6193,16 +6193,16 @@
         <v>44055</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -6223,16 +6223,16 @@
         <v>44055</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -6253,16 +6253,16 @@
         <v>44055</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -6283,16 +6283,16 @@
         <v>44055</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -6313,16 +6313,16 @@
         <v>44055</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -6343,16 +6343,16 @@
         <v>44055</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -6373,16 +6373,16 @@
         <v>44055</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -6403,16 +6403,16 @@
         <v>44055</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -6427,22 +6427,22 @@
     </row>
     <row r="157" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="12">
         <v>44055</v>
       </c>
       <c r="C157" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E157" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F157" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -6457,22 +6457,22 @@
     </row>
     <row r="158" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158" s="12">
         <v>44055</v>
       </c>
       <c r="C158" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E158" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -6487,22 +6487,22 @@
     </row>
     <row r="159" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="12">
         <v>44055</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -6517,22 +6517,22 @@
     </row>
     <row r="160" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B160" s="12">
         <v>44055</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -6547,22 +6547,22 @@
     </row>
     <row r="161" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B161" s="12">
         <v>44055</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -6577,22 +6577,22 @@
     </row>
     <row r="162" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B162" s="12">
         <v>44055</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -6607,22 +6607,22 @@
     </row>
     <row r="163" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B163" s="12">
         <v>44055</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -6637,22 +6637,22 @@
     </row>
     <row r="164" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B164" s="12">
         <v>44055</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -6667,22 +6667,22 @@
     </row>
     <row r="165" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B165" s="12">
         <v>44055</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -6697,22 +6697,22 @@
     </row>
     <row r="166" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B166" s="12">
         <v>44055</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -6727,22 +6727,22 @@
     </row>
     <row r="167" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B167" s="12">
         <v>44055</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="168" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B168" s="12">
         <v>44055</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -6787,22 +6787,22 @@
     </row>
     <row r="169" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B169" s="12">
         <v>44055</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -6817,22 +6817,22 @@
     </row>
     <row r="170" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B170" s="12">
         <v>44055</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -6847,22 +6847,22 @@
     </row>
     <row r="171" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B171" s="12">
         <v>44055</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -6877,22 +6877,22 @@
     </row>
     <row r="172" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B172" s="12">
         <v>44055</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -6907,22 +6907,22 @@
     </row>
     <row r="173" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B173" s="12">
         <v>44055</v>
       </c>
       <c r="C173" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F173" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -6937,22 +6937,22 @@
     </row>
     <row r="174" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B174" s="12">
         <v>44055</v>
       </c>
       <c r="C174" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E174" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -6967,22 +6967,22 @@
     </row>
     <row r="175" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B175" s="12">
         <v>44055</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -6997,22 +6997,22 @@
     </row>
     <row r="176" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B176" s="12">
         <v>44055</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -7027,22 +7027,22 @@
     </row>
     <row r="177" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B177" s="12">
         <v>44055</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -7057,22 +7057,22 @@
     </row>
     <row r="178" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B178" s="12">
         <v>44055</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -7087,22 +7087,22 @@
     </row>
     <row r="179" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B179" s="12">
         <v>44055</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -7117,22 +7117,22 @@
     </row>
     <row r="180" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B180" s="12">
         <v>44055</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -7147,22 +7147,22 @@
     </row>
     <row r="181" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B181" s="12">
         <v>44055</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -7177,22 +7177,22 @@
     </row>
     <row r="182" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B182" s="12">
         <v>44055</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -7207,22 +7207,22 @@
     </row>
     <row r="183" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B183" s="12">
         <v>44055</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -7237,22 +7237,22 @@
     </row>
     <row r="184" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B184" s="12">
         <v>44055</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -7267,22 +7267,22 @@
     </row>
     <row r="185" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B185" s="12">
         <v>44055</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -7297,22 +7297,22 @@
     </row>
     <row r="186" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B186" s="12">
         <v>44055</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -7327,22 +7327,22 @@
     </row>
     <row r="187" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B187" s="12">
         <v>44055</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -7357,22 +7357,22 @@
     </row>
     <row r="188" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B188" s="12">
         <v>44055</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -22068,7 +22068,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22076,7 +22076,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/example_data/data_submission_animal_sample_table.xlsx
+++ b/DataRepo/example_data/data_submission_animal_sample_table.xlsx
@@ -453,7 +453,7 @@
     <t xml:space="preserve">Anonymous</t>
   </si>
   <si>
-    <t xml:space="preserve">serum</t>
+    <t xml:space="preserve">serum_plasma_unspecified_location</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">M1_3_quad</t>
   </si>
   <si>
-    <t xml:space="preserve">quad</t>
+    <t xml:space="preserve">quadricep</t>
   </si>
   <si>
     <t xml:space="preserve">M1_4_kid</t>
@@ -528,19 +528,19 @@
     <t xml:space="preserve">M1_12_gWAT</t>
   </si>
   <si>
-    <t xml:space="preserve">gWAT</t>
+    <t xml:space="preserve">white_adipose_tissue_gonadal</t>
   </si>
   <si>
     <t xml:space="preserve">M1_13_iBAT</t>
   </si>
   <si>
-    <t xml:space="preserve">BAT</t>
+    <t xml:space="preserve">brown_adipose_tissue</t>
   </si>
   <si>
     <t xml:space="preserve">M1_14_SI</t>
   </si>
   <si>
-    <t xml:space="preserve">SmIn</t>
+    <t xml:space="preserve">small_intestine</t>
   </si>
   <si>
     <t xml:space="preserve">M1_15_ears</t>
@@ -991,14 +991,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="12" sqref="D17 D33 D49 D65 D81 D97 D112 D126 D140 D156 D172 D188 J2"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="12" sqref="D5 D21 D37 D53 D69 D85 D100 D115 D129 D144 D160 D176 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.17"/>
@@ -1483,16 +1483,16 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G13" activeCellId="12" sqref="D17 D33 D49 D65 D81 D97 D112 D126 D140 D156 D172 D188 G13"/>
+      <selection pane="bottomLeft" activeCell="D46" activeCellId="12" sqref="D5 D21 D37 D53 D69 D85 D100 D115 D129 D144 D160 D176 D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19"/>
@@ -21794,10 +21794,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="12" sqref="D17 D33 D49 D65 D81 D97 D112 D126 D140 D156 D172 D188 B4"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="12" sqref="D5 D21 D37 D53 D69 D85 D100 D115 D129 D144 D160 D176 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="144.83"/>

--- a/DataRepo/example_data/data_submission_animal_sample_table.xlsx
+++ b/DataRepo/example_data/data_submission_animal_sample_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/GoogleDrivePU/PROJECT/TRACEBASE/REPO/TraceBase/DataRepo/example_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5B700C-C9A3-F242-9E68-1B7A944A4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A047E23-4F8D-0040-BD34-473E1FCDE04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,13 +83,9 @@
             <rFont val="Arial"/>
             <charset val="1"/>
           </rPr>
-          <t>The HMDB Common Name of the tracer compound infused into the animal
-	-Lance Parsons</t>
+          <t xml:space="preserve">The HMDB Common Name of the tracer compound infused into the animal
+</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
         <r>
           <rPr>
             <sz val="10"/>
@@ -97,26 +93,11 @@
             <rFont val="Arial"/>
             <charset val="1"/>
           </rPr>
-          <t>The element that was labeled in the infusate (tracer), e.g. C, N, O.
-	-Lance Parsons</t>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <charset val="1"/>
-          </rPr>
-          <t>The number of labeled atoms in the infusate (tracer)
-	-Lance Parsons</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,12 +120,21 @@
             <rFont val="Arial"/>
             <charset val="1"/>
           </rPr>
-          <t>Concentration of infusate in this infusion solution (TODO: specify units)
-	-Lance Parsons</t>
+          <t xml:space="preserve">Concentration of infusate in this infusion solution (TODO: specify units)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="160">
   <si>
     <t>Animal ID</t>
   </si>
@@ -343,19 +333,7 @@
     <t>Animal Body Weight</t>
   </si>
   <si>
-    <t>Tracer Compound</t>
-  </si>
-  <si>
-    <t>Tracer Labeled Element</t>
-  </si>
-  <si>
-    <t>Tracer Label Atom Count</t>
-  </si>
-  <si>
     <t>Infusion Rate</t>
-  </si>
-  <si>
-    <t>Tracer Concentration</t>
   </si>
   <si>
     <t>Animal State</t>
@@ -368,12 +346,6 @@
   </si>
   <si>
     <t>C57BL6</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>fasted</t>
@@ -822,6 +794,15 @@
   <si>
     <t>Study Name</t>
   </si>
+  <si>
+    <t>Infusate</t>
+  </si>
+  <si>
+    <t>glucose-[13C6]</t>
+  </si>
+  <si>
+    <t>Tracer Concentrations</t>
+  </si>
 </sst>
 </file>
 
@@ -1199,11 +1180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1211,16 +1192,14 @@
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,448 +1210,370 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>33.1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
         <v>200</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>29.5</v>
       </c>
       <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>28.1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
       </c>
       <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
         <v>800</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>26.5</v>
       </c>
       <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>800</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>800</v>
-      </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>32.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
       </c>
       <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
         <v>800</v>
       </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>26.1</v>
       </c>
       <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>800</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>800</v>
-      </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>28.4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
         <v>200</v>
       </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>33.299999999999997</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
       </c>
       <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
         <v>800</v>
       </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
       <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
         <v>800</v>
       </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>27.2</v>
       </c>
       <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
       <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>35.799999999999997</v>
       </c>
       <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>800</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>800</v>
-      </c>
       <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>24.2</v>
       </c>
       <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>800</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>800</v>
-      </c>
       <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1711,19 +1612,19 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1745,22 +1646,22 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6">
         <v>44077</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1775,22 +1676,22 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6">
         <v>44077</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1805,22 +1706,22 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6">
         <v>44077</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1835,22 +1736,22 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6">
         <v>44077</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1865,22 +1766,22 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6">
         <v>44077</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1895,22 +1796,22 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6">
         <v>44077</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1925,22 +1826,22 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6">
         <v>44077</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1955,22 +1856,22 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6">
         <v>44077</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1985,22 +1886,22 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6">
         <v>44077</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2015,22 +1916,22 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6">
         <v>44077</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2045,22 +1946,22 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6">
         <v>44077</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2075,22 +1976,22 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6">
         <v>44077</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2105,22 +2006,22 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14" s="6">
         <v>44077</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2135,22 +2036,22 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6">
         <v>44077</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2165,22 +2066,22 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6">
         <v>44077</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2195,22 +2096,22 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6">
         <v>44077</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2225,22 +2126,22 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6">
         <v>44077</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2255,22 +2156,22 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6">
         <v>44077</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2285,22 +2186,22 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6">
         <v>44077</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2315,22 +2216,22 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B21" s="6">
         <v>44077</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2345,22 +2246,22 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6">
         <v>44077</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2375,22 +2276,22 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="6">
         <v>44077</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2405,22 +2306,22 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6">
         <v>44077</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2435,22 +2336,22 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B25" s="6">
         <v>44077</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2465,22 +2366,22 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B26" s="6">
         <v>44077</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2495,22 +2396,22 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="6">
         <v>44077</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2525,22 +2426,22 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6">
         <v>44077</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2555,22 +2456,22 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B29" s="6">
         <v>44077</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2585,22 +2486,22 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B30" s="6">
         <v>44077</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2615,22 +2516,22 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B31" s="6">
         <v>44077</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2645,22 +2546,22 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B32" s="6">
         <v>44077</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2675,22 +2576,22 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6">
         <v>44077</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2705,22 +2606,22 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B34" s="6">
         <v>44077</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2735,22 +2636,22 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B35" s="6">
         <v>44077</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2765,22 +2666,22 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B36" s="6">
         <v>44077</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2795,22 +2696,22 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6">
         <v>44077</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2825,22 +2726,22 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6">
         <v>44077</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2855,22 +2756,22 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B39" s="6">
         <v>44077</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2885,22 +2786,22 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B40" s="6">
         <v>44077</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2915,22 +2816,22 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B41" s="6">
         <v>44077</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2945,22 +2846,22 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6">
         <v>44077</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2975,22 +2876,22 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B43" s="6">
         <v>44077</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -3005,22 +2906,22 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6">
         <v>44077</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3035,22 +2936,22 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B45" s="6">
         <v>44077</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3065,22 +2966,22 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B46" s="6">
         <v>44077</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3095,22 +2996,22 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B47" s="6">
         <v>44077</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3125,22 +3026,22 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B48" s="6">
         <v>44077</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3155,22 +3056,22 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B49" s="6">
         <v>44077</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3185,22 +3086,22 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6">
         <v>44077</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3215,22 +3116,22 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B51" s="6">
         <v>44077</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3245,22 +3146,22 @@
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B52" s="6">
         <v>44077</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3275,22 +3176,22 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B53" s="6">
         <v>44077</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3305,22 +3206,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B54" s="6">
         <v>44077</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3335,22 +3236,22 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B55" s="6">
         <v>44077</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -3365,22 +3266,22 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B56" s="6">
         <v>44077</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -3395,22 +3296,22 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B57" s="6">
         <v>44077</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3425,22 +3326,22 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B58" s="6">
         <v>44077</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -3455,22 +3356,22 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B59" s="6">
         <v>44077</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -3485,22 +3386,22 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B60" s="6">
         <v>44077</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3515,22 +3416,22 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B61" s="6">
         <v>44077</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -3545,22 +3446,22 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B62" s="6">
         <v>44077</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -3575,22 +3476,22 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B63" s="6">
         <v>44077</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -3605,22 +3506,22 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B64" s="6">
         <v>44077</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3635,22 +3536,22 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B65" s="6">
         <v>44077</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3665,22 +3566,22 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B66" s="6">
         <v>44077</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3695,22 +3596,22 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B67" s="6">
         <v>44077</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3725,22 +3626,22 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B68" s="6">
         <v>44077</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -3755,22 +3656,22 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B69" s="6">
         <v>44077</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -3785,22 +3686,22 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B70" s="6">
         <v>44077</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -3815,22 +3716,22 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B71" s="6">
         <v>44077</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -3845,22 +3746,22 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B72" s="6">
         <v>44077</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3875,22 +3776,22 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B73" s="6">
         <v>44077</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -3905,22 +3806,22 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B74" s="6">
         <v>44077</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3935,22 +3836,22 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B75" s="6">
         <v>44077</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3965,22 +3866,22 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B76" s="6">
         <v>44077</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3995,22 +3896,22 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B77" s="6">
         <v>44077</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -4025,22 +3926,22 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B78" s="6">
         <v>44077</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -4055,22 +3956,22 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B79" s="6">
         <v>44077</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -4085,22 +3986,22 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B80" s="6">
         <v>44077</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -4115,22 +4016,22 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B81" s="6">
         <v>44077</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -4145,22 +4046,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B82" s="6">
         <v>44077</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -4175,22 +4076,22 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B83" s="6">
         <v>44077</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -4205,22 +4106,22 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B84" s="6">
         <v>44077</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E84" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -4235,22 +4136,22 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B85" s="6">
         <v>44077</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -4265,22 +4166,22 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B86" s="6">
         <v>44077</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -4295,22 +4196,22 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B87" s="6">
         <v>44077</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -4325,22 +4226,22 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B88" s="6">
         <v>44077</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -4355,22 +4256,22 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B89" s="6">
         <v>44077</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -4385,22 +4286,22 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B90" s="6">
         <v>44077</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -4415,22 +4316,22 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B91" s="6">
         <v>44077</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -4445,22 +4346,22 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B92" s="6">
         <v>44077</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -4475,22 +4376,22 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B93" s="6">
         <v>44077</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -4505,22 +4406,22 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B94" s="6">
         <v>44077</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -4535,22 +4436,22 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B95" s="6">
         <v>44077</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -4565,22 +4466,22 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B96" s="6">
         <v>44077</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -4595,22 +4496,22 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B97" s="6">
         <v>44077</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -4625,22 +4526,22 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B98" s="6">
         <v>44041</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -4655,22 +4556,22 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B99" s="6">
         <v>44041</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E99" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -4685,22 +4586,22 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B100" s="6">
         <v>44041</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -4715,22 +4616,22 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B101" s="6">
         <v>44041</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -4745,22 +4646,22 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B102" s="6">
         <v>44041</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -4775,22 +4676,22 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B103" s="6">
         <v>44041</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -4805,22 +4706,22 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B104" s="6">
         <v>44041</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4835,22 +4736,22 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B105" s="6">
         <v>44041</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -4865,22 +4766,22 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B106" s="6">
         <v>44041</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -4895,22 +4796,22 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B107" s="6">
         <v>44041</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -4925,22 +4826,22 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B108" s="6">
         <v>44041</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -4955,22 +4856,22 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B109" s="6">
         <v>44041</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -4985,22 +4886,22 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B110" s="6">
         <v>44041</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -5015,22 +4916,22 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B111" s="6">
         <v>44041</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -5045,22 +4946,22 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B112" s="6">
         <v>44041</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -5075,22 +4976,22 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B113" s="6">
         <v>44041</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -5105,22 +5006,22 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B114" s="6">
         <v>44041</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E114" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -5135,22 +5036,22 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B115" s="6">
         <v>44041</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -5165,22 +5066,22 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B116" s="6">
         <v>44041</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -5195,22 +5096,22 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B117" s="6">
         <v>44041</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
@@ -5225,22 +5126,22 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B118" s="6">
         <v>44041</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -5255,22 +5156,22 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B119" s="6">
         <v>44041</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -5285,22 +5186,22 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B120" s="6">
         <v>44041</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -5315,22 +5216,22 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B121" s="6">
         <v>44041</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -5345,22 +5246,22 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B122" s="6">
         <v>44041</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -5375,22 +5276,22 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B123" s="6">
         <v>44041</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -5405,22 +5306,22 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B124" s="6">
         <v>44041</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -5435,22 +5336,22 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B125" s="6">
         <v>44041</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -5465,22 +5366,22 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B126" s="6">
         <v>44041</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -5495,22 +5396,22 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B127" s="6">
         <v>44041</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -5525,22 +5426,22 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B128" s="6">
         <v>44041</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -5555,22 +5456,22 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B129" s="6">
         <v>44041</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -5585,22 +5486,22 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B130" s="6">
         <v>44041</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -5615,22 +5516,22 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B131" s="6">
         <v>44041</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -5645,22 +5546,22 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B132" s="6">
         <v>44041</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -5675,22 +5576,22 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B133" s="6">
         <v>44041</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -5705,22 +5606,22 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B134" s="6">
         <v>44041</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -5735,22 +5636,22 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B135" s="6">
         <v>44041</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -5765,22 +5666,22 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B136" s="6">
         <v>44041</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -5795,22 +5696,22 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B137" s="6">
         <v>44041</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -5825,22 +5726,22 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B138" s="6">
         <v>44041</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -5855,22 +5756,22 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B139" s="6">
         <v>44041</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -5885,22 +5786,22 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B140" s="6">
         <v>44041</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -5915,22 +5816,22 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B141" s="6">
         <v>44055</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
@@ -5945,22 +5846,22 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B142" s="6">
         <v>44055</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
@@ -5975,22 +5876,22 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B143" s="6">
         <v>44055</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E143" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
@@ -6005,22 +5906,22 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B144" s="6">
         <v>44055</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
@@ -6035,22 +5936,22 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B145" s="6">
         <v>44055</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -6065,22 +5966,22 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B146" s="6">
         <v>44055</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
@@ -6095,22 +5996,22 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B147" s="6">
         <v>44055</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -6125,22 +6026,22 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B148" s="6">
         <v>44055</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
@@ -6155,22 +6056,22 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B149" s="6">
         <v>44055</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -6185,22 +6086,22 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B150" s="6">
         <v>44055</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
@@ -6215,22 +6116,22 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B151" s="6">
         <v>44055</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
@@ -6245,22 +6146,22 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B152" s="6">
         <v>44055</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
@@ -6275,22 +6176,22 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B153" s="6">
         <v>44055</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
@@ -6305,22 +6206,22 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B154" s="6">
         <v>44055</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
@@ -6335,22 +6236,22 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B155" s="6">
         <v>44055</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
@@ -6365,22 +6266,22 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B156" s="6">
         <v>44055</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
@@ -6395,22 +6296,22 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B157" s="6">
         <v>44055</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
@@ -6425,22 +6326,22 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B158" s="6">
         <v>44055</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -6455,22 +6356,22 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B159" s="6">
         <v>44055</v>
       </c>
       <c r="C159" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E159" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -6485,22 +6386,22 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B160" s="6">
         <v>44055</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
@@ -6515,22 +6416,22 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B161" s="6">
         <v>44055</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
@@ -6545,22 +6446,22 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B162" s="6">
         <v>44055</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
@@ -6575,22 +6476,22 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B163" s="6">
         <v>44055</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
@@ -6605,22 +6506,22 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B164" s="6">
         <v>44055</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
@@ -6635,22 +6536,22 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B165" s="6">
         <v>44055</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
@@ -6665,22 +6566,22 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B166" s="6">
         <v>44055</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
@@ -6695,22 +6596,22 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B167" s="6">
         <v>44055</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
@@ -6725,22 +6626,22 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B168" s="6">
         <v>44055</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
@@ -6755,22 +6656,22 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B169" s="6">
         <v>44055</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
@@ -6785,22 +6686,22 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B170" s="6">
         <v>44055</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
@@ -6815,22 +6716,22 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B171" s="6">
         <v>44055</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
@@ -6845,22 +6746,22 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B172" s="6">
         <v>44055</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
@@ -6875,22 +6776,22 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B173" s="6">
         <v>44055</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
@@ -6905,22 +6806,22 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B174" s="6">
         <v>44055</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
@@ -6935,22 +6836,22 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B175" s="6">
         <v>44055</v>
       </c>
       <c r="C175" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E175" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
@@ -6965,22 +6866,22 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B176" s="6">
         <v>44055</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -6995,22 +6896,22 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B177" s="6">
         <v>44055</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -7025,22 +6926,22 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B178" s="6">
         <v>44055</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -7055,22 +6956,22 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B179" s="6">
         <v>44055</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -7085,22 +6986,22 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B180" s="6">
         <v>44055</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -7115,22 +7016,22 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B181" s="6">
         <v>44055</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -7145,22 +7046,22 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B182" s="6">
         <v>44055</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -7175,22 +7076,22 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B183" s="6">
         <v>44055</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -7205,22 +7106,22 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B184" s="6">
         <v>44055</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -7235,22 +7136,22 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B185" s="6">
         <v>44055</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -7265,22 +7166,22 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B186" s="6">
         <v>44055</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -7295,22 +7196,22 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B187" s="6">
         <v>44055</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -7325,22 +7226,22 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B188" s="6">
         <v>44055</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -21999,10 +21900,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -22031,18 +21932,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/example_data/data_submission_animal_sample_table.xlsx
+++ b/DataRepo/example_data/data_submission_animal_sample_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/example_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A047E23-4F8D-0040-BD34-473E1FCDE04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4B34ADF-0C12-1740-A803-6428E18934A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="3140" windowWidth="26460" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -141,10 +150,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Animal feeding status: have the mice been fasted or fed?
-	-Lance Parsons</t>
+          <t xml:space="preserve">Animal feeding status: have the mice been fasted or fed?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -334,9 +352,6 @@
   </si>
   <si>
     <t>Infusion Rate</t>
-  </si>
-  <si>
-    <t>Animal State</t>
   </si>
   <si>
     <t>Animal Treatment</t>
@@ -803,6 +818,9 @@
   <si>
     <t>Tracer Concentrations</t>
   </si>
+  <si>
+    <t>Feeding Status</t>
+  </si>
 </sst>
 </file>
 
@@ -812,7 +830,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -831,6 +849,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -853,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -866,6 +897,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,7 +1216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1210,36 +1242,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>33.1</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -1248,27 +1280,27 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>29.5</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -1277,27 +1309,27 @@
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>28.1</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -1306,27 +1338,27 @@
         <v>800</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>26.5</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -1335,27 +1367,27 @@
         <v>800</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>32.5</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1364,27 +1396,27 @@
         <v>800</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
         <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>26.1</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1393,27 +1425,27 @@
         <v>800</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>28.4</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1422,27 +1454,27 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>33.299999999999997</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -1451,27 +1483,27 @@
         <v>800</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -1480,27 +1512,27 @@
         <v>800</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>27.2</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -1509,27 +1541,27 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>35.799999999999997</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12">
         <v>0.1</v>
@@ -1538,27 +1570,27 @@
         <v>800</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>24.2</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13">
         <v>0.1</v>
@@ -1567,13 +1599,13 @@
         <v>800</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1612,19 +1644,19 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1646,22 +1678,22 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6">
         <v>44077</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1676,22 +1708,22 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6">
         <v>44077</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1706,22 +1738,22 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6">
         <v>44077</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1736,22 +1768,22 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6">
         <v>44077</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1766,22 +1798,22 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6">
         <v>44077</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1796,22 +1828,22 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6">
         <v>44077</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1826,22 +1858,22 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6">
         <v>44077</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1856,22 +1888,22 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6">
         <v>44077</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1886,22 +1918,22 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
         <v>44077</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1916,22 +1948,22 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6">
         <v>44077</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1946,22 +1978,22 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6">
         <v>44077</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1976,22 +2008,22 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6">
         <v>44077</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2006,22 +2038,22 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6">
         <v>44077</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2036,22 +2068,22 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6">
         <v>44077</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2066,22 +2098,22 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6">
         <v>44077</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2096,22 +2128,22 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="6">
         <v>44077</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2126,22 +2158,22 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6">
         <v>44077</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2156,22 +2188,22 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6">
         <v>44077</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2186,22 +2218,22 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6">
         <v>44077</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2216,22 +2248,22 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="6">
         <v>44077</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2246,22 +2278,22 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="6">
         <v>44077</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2276,22 +2308,22 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="6">
         <v>44077</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2306,22 +2338,22 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6">
         <v>44077</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2336,22 +2368,22 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="6">
         <v>44077</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2366,22 +2398,22 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="6">
         <v>44077</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2396,22 +2428,22 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="6">
         <v>44077</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2426,22 +2458,22 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="6">
         <v>44077</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2456,22 +2488,22 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="6">
         <v>44077</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2486,22 +2518,22 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6">
         <v>44077</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2516,22 +2548,22 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6">
         <v>44077</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2546,22 +2578,22 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="6">
         <v>44077</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2576,22 +2608,22 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="6">
         <v>44077</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2606,22 +2638,22 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6">
         <v>44077</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2636,22 +2668,22 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="6">
         <v>44077</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2666,22 +2698,22 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="6">
         <v>44077</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2696,22 +2728,22 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="6">
         <v>44077</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2726,22 +2758,22 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="6">
         <v>44077</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2756,22 +2788,22 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="6">
         <v>44077</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2786,22 +2818,22 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="6">
         <v>44077</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2816,22 +2848,22 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="6">
         <v>44077</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2846,22 +2878,22 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="6">
         <v>44077</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2876,22 +2908,22 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="6">
         <v>44077</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2906,22 +2938,22 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="6">
         <v>44077</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2936,22 +2968,22 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6">
         <v>44077</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2966,22 +2998,22 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="6">
         <v>44077</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2996,22 +3028,22 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="6">
         <v>44077</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3026,22 +3058,22 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="6">
         <v>44077</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3056,22 +3088,22 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="6">
         <v>44077</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3086,22 +3118,22 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="6">
         <v>44077</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3116,22 +3148,22 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="6">
         <v>44077</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3146,22 +3178,22 @@
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="6">
         <v>44077</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3176,22 +3208,22 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="6">
         <v>44077</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3206,22 +3238,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="6">
         <v>44077</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3236,22 +3268,22 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="6">
         <v>44077</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -3266,22 +3298,22 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="6">
         <v>44077</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -3296,22 +3328,22 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="6">
         <v>44077</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3326,22 +3358,22 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="6">
         <v>44077</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -3356,22 +3388,22 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="6">
         <v>44077</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -3386,22 +3418,22 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="6">
         <v>44077</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3416,22 +3448,22 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="6">
         <v>44077</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -3446,22 +3478,22 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="6">
         <v>44077</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -3476,22 +3508,22 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="6">
         <v>44077</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -3506,22 +3538,22 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="6">
         <v>44077</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3536,22 +3568,22 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="6">
         <v>44077</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3566,22 +3598,22 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B66" s="6">
         <v>44077</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3596,22 +3628,22 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" s="6">
         <v>44077</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E67" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3626,22 +3658,22 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="6">
         <v>44077</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -3656,22 +3688,22 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" s="6">
         <v>44077</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -3686,22 +3718,22 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="6">
         <v>44077</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -3716,22 +3748,22 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="6">
         <v>44077</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -3746,22 +3778,22 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="6">
         <v>44077</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3776,22 +3808,22 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="6">
         <v>44077</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -3806,22 +3838,22 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B74" s="6">
         <v>44077</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3836,22 +3868,22 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="6">
         <v>44077</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3866,22 +3898,22 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="6">
         <v>44077</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3896,22 +3928,22 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="6">
         <v>44077</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -3926,22 +3958,22 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="6">
         <v>44077</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -3956,22 +3988,22 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="6">
         <v>44077</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -3986,22 +4018,22 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="6">
         <v>44077</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -4016,22 +4048,22 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="6">
         <v>44077</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -4046,22 +4078,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="6">
         <v>44077</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F82" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -4076,22 +4108,22 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" s="6">
         <v>44077</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E83" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -4106,22 +4138,22 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="6">
         <v>44077</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -4136,22 +4168,22 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="6">
         <v>44077</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -4166,22 +4198,22 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="6">
         <v>44077</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -4196,22 +4228,22 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="6">
         <v>44077</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -4226,22 +4258,22 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="6">
         <v>44077</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -4256,22 +4288,22 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="6">
         <v>44077</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -4286,22 +4318,22 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="6">
         <v>44077</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -4316,22 +4348,22 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="6">
         <v>44077</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -4346,22 +4378,22 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B92" s="6">
         <v>44077</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -4376,22 +4408,22 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="6">
         <v>44077</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -4406,22 +4438,22 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="6">
         <v>44077</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -4436,22 +4468,22 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" s="6">
         <v>44077</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -4466,22 +4498,22 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="6">
         <v>44077</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -4496,22 +4528,22 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B97" s="6">
         <v>44077</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -4526,22 +4558,22 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="6">
         <v>44041</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E98" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -4556,22 +4588,22 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" s="6">
         <v>44041</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -4586,22 +4618,22 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" s="6">
         <v>44041</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -4616,22 +4648,22 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" s="6">
         <v>44041</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -4646,22 +4678,22 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B102" s="6">
         <v>44041</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -4676,22 +4708,22 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B103" s="6">
         <v>44041</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -4706,22 +4738,22 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="6">
         <v>44041</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4736,22 +4768,22 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B105" s="6">
         <v>44041</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -4766,22 +4798,22 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106" s="6">
         <v>44041</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -4796,22 +4828,22 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B107" s="6">
         <v>44041</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -4826,22 +4858,22 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B108" s="6">
         <v>44041</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -4856,22 +4888,22 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" s="6">
         <v>44041</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -4886,22 +4918,22 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B110" s="6">
         <v>44041</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -4916,22 +4948,22 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111" s="6">
         <v>44041</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -4946,22 +4978,22 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B112" s="6">
         <v>44041</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -4976,22 +5008,22 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B113" s="6">
         <v>44041</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E113" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -5006,22 +5038,22 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B114" s="6">
         <v>44041</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -5036,22 +5068,22 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B115" s="6">
         <v>44041</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -5066,22 +5098,22 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B116" s="6">
         <v>44041</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -5096,22 +5128,22 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B117" s="6">
         <v>44041</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
@@ -5126,22 +5158,22 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B118" s="6">
         <v>44041</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -5156,22 +5188,22 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B119" s="6">
         <v>44041</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -5186,22 +5218,22 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B120" s="6">
         <v>44041</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -5216,22 +5248,22 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B121" s="6">
         <v>44041</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -5246,22 +5278,22 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B122" s="6">
         <v>44041</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -5276,22 +5308,22 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B123" s="6">
         <v>44041</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -5306,22 +5338,22 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124" s="6">
         <v>44041</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -5336,22 +5368,22 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125" s="6">
         <v>44041</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -5366,22 +5398,22 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" s="6">
         <v>44041</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -5396,22 +5428,22 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127" s="6">
         <v>44041</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E127" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -5426,22 +5458,22 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128" s="6">
         <v>44041</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -5456,22 +5488,22 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B129" s="6">
         <v>44041</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -5486,22 +5518,22 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B130" s="6">
         <v>44041</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -5516,22 +5548,22 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B131" s="6">
         <v>44041</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -5546,22 +5578,22 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B132" s="6">
         <v>44041</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -5576,22 +5608,22 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B133" s="6">
         <v>44041</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -5606,22 +5638,22 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B134" s="6">
         <v>44041</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -5636,22 +5668,22 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B135" s="6">
         <v>44041</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -5666,22 +5698,22 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B136" s="6">
         <v>44041</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -5696,22 +5728,22 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B137" s="6">
         <v>44041</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -5726,22 +5758,22 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B138" s="6">
         <v>44041</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -5756,22 +5788,22 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B139" s="6">
         <v>44041</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -5786,22 +5818,22 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B140" s="6">
         <v>44041</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -5816,22 +5848,22 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B141" s="6">
         <v>44055</v>
       </c>
       <c r="C141" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="E141" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F141" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
@@ -5846,22 +5878,22 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="6">
         <v>44055</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E142" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
@@ -5876,22 +5908,22 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="6">
         <v>44055</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
@@ -5906,22 +5938,22 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B144" s="6">
         <v>44055</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
@@ -5936,22 +5968,22 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B145" s="6">
         <v>44055</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -5966,22 +5998,22 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B146" s="6">
         <v>44055</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
@@ -5996,22 +6028,22 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B147" s="6">
         <v>44055</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -6026,22 +6058,22 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B148" s="6">
         <v>44055</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
@@ -6056,22 +6088,22 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B149" s="6">
         <v>44055</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -6086,22 +6118,22 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B150" s="6">
         <v>44055</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
@@ -6116,22 +6148,22 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B151" s="6">
         <v>44055</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
@@ -6146,22 +6178,22 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B152" s="6">
         <v>44055</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
@@ -6176,22 +6208,22 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B153" s="6">
         <v>44055</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
@@ -6206,22 +6238,22 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B154" s="6">
         <v>44055</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
@@ -6236,22 +6268,22 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B155" s="6">
         <v>44055</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
@@ -6266,22 +6298,22 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B156" s="6">
         <v>44055</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
@@ -6296,22 +6328,22 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B157" s="6">
         <v>44055</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="E157" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E157" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F157" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
@@ -6326,22 +6358,22 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B158" s="6">
         <v>44055</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E158" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -6356,22 +6388,22 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B159" s="6">
         <v>44055</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -6386,22 +6418,22 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160" s="6">
         <v>44055</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
@@ -6416,22 +6448,22 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B161" s="6">
         <v>44055</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
@@ -6446,22 +6478,22 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B162" s="6">
         <v>44055</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
@@ -6476,22 +6508,22 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B163" s="6">
         <v>44055</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
@@ -6506,22 +6538,22 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B164" s="6">
         <v>44055</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
@@ -6536,22 +6568,22 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B165" s="6">
         <v>44055</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
@@ -6566,22 +6598,22 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B166" s="6">
         <v>44055</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
@@ -6596,22 +6628,22 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B167" s="6">
         <v>44055</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
@@ -6626,22 +6658,22 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B168" s="6">
         <v>44055</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
@@ -6656,22 +6688,22 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B169" s="6">
         <v>44055</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
@@ -6686,22 +6718,22 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B170" s="6">
         <v>44055</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
@@ -6716,22 +6748,22 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B171" s="6">
         <v>44055</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
@@ -6746,22 +6778,22 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B172" s="6">
         <v>44055</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
@@ -6776,22 +6808,22 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173" s="6">
         <v>44055</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E173" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F173" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
@@ -6806,22 +6838,22 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B174" s="6">
         <v>44055</v>
       </c>
       <c r="C174" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E174" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
@@ -6836,22 +6868,22 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B175" s="6">
         <v>44055</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
@@ -6866,22 +6898,22 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B176" s="6">
         <v>44055</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -6896,22 +6928,22 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B177" s="6">
         <v>44055</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -6926,22 +6958,22 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B178" s="6">
         <v>44055</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -6956,22 +6988,22 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B179" s="6">
         <v>44055</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -6986,22 +7018,22 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B180" s="6">
         <v>44055</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -7016,22 +7048,22 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B181" s="6">
         <v>44055</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -7046,22 +7078,22 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B182" s="6">
         <v>44055</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -7076,22 +7108,22 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B183" s="6">
         <v>44055</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -7106,22 +7138,22 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B184" s="6">
         <v>44055</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -7136,22 +7168,22 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B185" s="6">
         <v>44055</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -7166,22 +7198,22 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B186" s="6">
         <v>44055</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -7196,22 +7228,22 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B187" s="6">
         <v>44055</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -7226,22 +7258,22 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B188" s="6">
         <v>44055</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -21900,10 +21932,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -21932,18 +21964,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/example_data/data_submission_animal_sample_table.xlsx
+++ b/DataRepo/example_data/data_submission_animal_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4B34ADF-0C12-1740-A803-6428E18934A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF5DB618-C771-BA43-A949-09AE11B5F9FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="3140" windowWidth="26460" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14380" yWindow="5220" windowWidth="33060" windowHeight="20340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Genotype (optional)
 	-Lance Parsons</t>
@@ -76,10 +76,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Animal Body Weight (g) (optional)
-	-Lance Parsons</t>
+          <t xml:space="preserve">Animal Body Weight (g) (optional)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -90,7 +99,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The HMDB Common Name of the tracer compound infused into the animal
 </t>
@@ -100,7 +109,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -113,7 +122,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Volume of infusate solution infused in microliters (ul) per minute, per gram of mouse body weight
 	-Lance Parsons</t>
@@ -127,7 +136,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Concentration of infusate in this infusion solution (TODO: specify units)
 </t>
@@ -137,7 +146,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -173,7 +182,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
 	-Lance Parsons</t>
@@ -187,7 +196,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">An identifier for the "experiment", which is typically a collection of mice similar infusion parameters. this is loosely defined based on the person who did the infusions. Here, there is a consistant format: two initials for the lab member who did the infusion and then a number (date?)
 </t>
@@ -197,7 +206,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -220,10 +229,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Name of the sample, must match the sample name in AccuCor file
-	-Lance Parsons</t>
+          <t xml:space="preserve">Name of the sample, must match the sample name in AccuCor file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -234,7 +252,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Date the sample was collected (YYYY-MM-DD)
 	-Lance Parsons</t>
@@ -248,7 +266,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Name of researcher who collected the sample
 	-Lance Parsons</t>
@@ -262,7 +280,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tissue type
 	-Lance Parsons</t>
@@ -276,7 +294,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Minutes after infusion that the sample was collected
 	-Lance Parsons</t>
@@ -290,10 +308,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -314,7 +341,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Short, unique identifier for an animal treatment protocol. Must match the values provided in the Animals table.
 	-Lance Parsons</t>
@@ -328,7 +355,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>A thorough description of an animal treatment protocol. This will be useful for searching and filtering, so use standard terms and be as complete as possible.
 	-Lance Parsons</t>
@@ -340,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="241">
   <si>
     <t>Animal ID</t>
   </si>
@@ -357,9 +384,6 @@
     <t>Animal Treatment</t>
   </si>
   <si>
-    <t>090320_M1</t>
-  </si>
-  <si>
     <t>C57BL6</t>
   </si>
   <si>
@@ -372,45 +396,12 @@
     <t>Serine synthesis from glucose in control vs ser/gly-free diet</t>
   </si>
   <si>
-    <t>090320_M2</t>
-  </si>
-  <si>
     <t>Ser/gly-free diet</t>
   </si>
   <si>
-    <t>090320_M3</t>
-  </si>
-  <si>
     <t>fed</t>
   </si>
   <si>
-    <t>090320_M4</t>
-  </si>
-  <si>
-    <t>090320_M5</t>
-  </si>
-  <si>
-    <t>090320_M6</t>
-  </si>
-  <si>
-    <t>072920_M1</t>
-  </si>
-  <si>
-    <t>072920_M2</t>
-  </si>
-  <si>
-    <t>072920_M3</t>
-  </si>
-  <si>
-    <t>081220_M1</t>
-  </si>
-  <si>
-    <t>081220_M2</t>
-  </si>
-  <si>
-    <t>081220_M3</t>
-  </si>
-  <si>
     <t>Sample Name</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
     <t>Collection Time</t>
   </si>
   <si>
-    <t>M1_0_TS0_10ul</t>
-  </si>
-  <si>
     <t>Anonymous</t>
   </si>
   <si>
@@ -438,366 +426,51 @@
     <t>0</t>
   </si>
   <si>
-    <t>M1_1_TS1_10ul</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
-    <t>M1_2_brain</t>
-  </si>
-  <si>
     <t>brain</t>
   </si>
   <si>
-    <t>M1_3_quad</t>
-  </si>
-  <si>
     <t>quadricep</t>
   </si>
   <si>
-    <t>M1_4_kid</t>
-  </si>
-  <si>
     <t>kidney</t>
   </si>
   <si>
-    <t>M1_5_liv</t>
-  </si>
-  <si>
     <t>liver</t>
   </si>
   <si>
-    <t>M1_6_spl</t>
-  </si>
-  <si>
     <t>spleen</t>
   </si>
   <si>
-    <t>M1_7_panc</t>
-  </si>
-  <si>
     <t>pancreas</t>
   </si>
   <si>
-    <t>M1_8_stom</t>
-  </si>
-  <si>
     <t>stomach</t>
   </si>
   <si>
-    <t>M1_9_lung</t>
-  </si>
-  <si>
     <t>lung</t>
   </si>
   <si>
-    <t>M1_10_hea</t>
-  </si>
-  <si>
     <t>heart</t>
   </si>
   <si>
-    <t>M1_11_thy</t>
-  </si>
-  <si>
     <t>thymus</t>
   </si>
   <si>
-    <t>M1_12_gWAT</t>
-  </si>
-  <si>
     <t>white_adipose_tissue_gonadal</t>
   </si>
   <si>
-    <t>M1_13_iBAT</t>
-  </si>
-  <si>
     <t>brown_adipose_tissue</t>
   </si>
   <si>
-    <t>M1_14_SI</t>
-  </si>
-  <si>
     <t>small_intestine</t>
   </si>
   <si>
-    <t>M1_15_ears</t>
-  </si>
-  <si>
     <t>ear</t>
   </si>
   <si>
-    <t>M2_0_TS0_10ul</t>
-  </si>
-  <si>
-    <t>M2_1_TS1_10ul</t>
-  </si>
-  <si>
-    <t>M2_2_bra</t>
-  </si>
-  <si>
-    <t>M2_3_quad</t>
-  </si>
-  <si>
-    <t>M2_4_kid</t>
-  </si>
-  <si>
-    <t>M2_5_liv</t>
-  </si>
-  <si>
-    <t>M2_6_spl</t>
-  </si>
-  <si>
-    <t>M2_7_panc_rr</t>
-  </si>
-  <si>
-    <t>M2_8_stom_rr</t>
-  </si>
-  <si>
-    <t>M2_9_lung</t>
-  </si>
-  <si>
-    <t>M2_10_hea</t>
-  </si>
-  <si>
-    <t>M2_11_thy</t>
-  </si>
-  <si>
-    <t>M2_12_gWAT</t>
-  </si>
-  <si>
-    <t>M2_13_iBAT</t>
-  </si>
-  <si>
-    <t>M2_14_SI</t>
-  </si>
-  <si>
-    <t>M2_15_ears</t>
-  </si>
-  <si>
-    <t>M3_0_TS0_10ul</t>
-  </si>
-  <si>
-    <t>M3_1_TS1_10ul</t>
-  </si>
-  <si>
-    <t>M3_2_brain</t>
-  </si>
-  <si>
-    <t>M3_3_quad</t>
-  </si>
-  <si>
-    <t>M3_4_kid</t>
-  </si>
-  <si>
-    <t>M3_5_liv</t>
-  </si>
-  <si>
-    <t>M3_6_spl</t>
-  </si>
-  <si>
-    <t>M3_7_panc</t>
-  </si>
-  <si>
-    <t>M3_8_stom</t>
-  </si>
-  <si>
-    <t>M3_9_lung</t>
-  </si>
-  <si>
-    <t>M3_10_hea</t>
-  </si>
-  <si>
-    <t>M3_11_thy</t>
-  </si>
-  <si>
-    <t>M3_12_gWAT</t>
-  </si>
-  <si>
-    <t>M3_13_iBAT</t>
-  </si>
-  <si>
-    <t>M3_14_SI</t>
-  </si>
-  <si>
-    <t>M3_15_ears</t>
-  </si>
-  <si>
-    <t>M4_0_TS0_10ul</t>
-  </si>
-  <si>
-    <t>M4_1_TS1_10ul</t>
-  </si>
-  <si>
-    <t>M4_2_bra</t>
-  </si>
-  <si>
-    <t>M4_3_quad</t>
-  </si>
-  <si>
-    <t>M4_4_kid</t>
-  </si>
-  <si>
-    <t>M4_5_liv</t>
-  </si>
-  <si>
-    <t>M4_6_spl</t>
-  </si>
-  <si>
-    <t>M4_7_panc</t>
-  </si>
-  <si>
-    <t>M4_8_stom</t>
-  </si>
-  <si>
-    <t>M4_9_lung</t>
-  </si>
-  <si>
-    <t>M4_10_hea</t>
-  </si>
-  <si>
-    <t>M4_11_thy</t>
-  </si>
-  <si>
-    <t>M4_12_gWAT</t>
-  </si>
-  <si>
-    <t>M4_13_iBAT</t>
-  </si>
-  <si>
-    <t>M4_14_SI</t>
-  </si>
-  <si>
-    <t>M4_15_ears</t>
-  </si>
-  <si>
-    <t>M5_0_TS0_10ul</t>
-  </si>
-  <si>
-    <t>M5_1_TS1_10ul</t>
-  </si>
-  <si>
-    <t>M5_2_brain</t>
-  </si>
-  <si>
-    <t>M5_3_quad</t>
-  </si>
-  <si>
-    <t>M5_4_kid</t>
-  </si>
-  <si>
-    <t>M5_5_liv</t>
-  </si>
-  <si>
-    <t>M5_6_spl</t>
-  </si>
-  <si>
-    <t>M5_7_panc</t>
-  </si>
-  <si>
-    <t>M5_8_stom</t>
-  </si>
-  <si>
-    <t>M5_9_lung</t>
-  </si>
-  <si>
-    <t>M5_10_hea</t>
-  </si>
-  <si>
-    <t>M5_11_thy</t>
-  </si>
-  <si>
-    <t>M5_12_gWAT</t>
-  </si>
-  <si>
-    <t>M5_13_iBAT</t>
-  </si>
-  <si>
-    <t>M5_14_SI</t>
-  </si>
-  <si>
-    <t>M5_15_ears</t>
-  </si>
-  <si>
-    <t>M6_0_TS0_10ul</t>
-  </si>
-  <si>
-    <t>M6_1_TS1_10ul</t>
-  </si>
-  <si>
-    <t>M6_2_bra</t>
-  </si>
-  <si>
-    <t>M6_3_quad</t>
-  </si>
-  <si>
-    <t>M6_4_kid</t>
-  </si>
-  <si>
-    <t>M6_5_liv</t>
-  </si>
-  <si>
-    <t>M6_6_spl</t>
-  </si>
-  <si>
-    <t>M6_7_panc</t>
-  </si>
-  <si>
-    <t>M6_8_stom</t>
-  </si>
-  <si>
-    <t>M6_9_lung</t>
-  </si>
-  <si>
-    <t>M6_10_hea</t>
-  </si>
-  <si>
-    <t>M6_11_thy</t>
-  </si>
-  <si>
-    <t>M6_12_gWAT</t>
-  </si>
-  <si>
-    <t>M6_13_iBAT</t>
-  </si>
-  <si>
-    <t>M6_14_SI</t>
-  </si>
-  <si>
-    <t>M6_15_ears</t>
-  </si>
-  <si>
-    <t>M1_1_TS1</t>
-  </si>
-  <si>
-    <t>M1_2_bra</t>
-  </si>
-  <si>
-    <t>M2_1_TS1</t>
-  </si>
-  <si>
-    <t>M2_7_panc</t>
-  </si>
-  <si>
-    <t>M2_8_stom</t>
-  </si>
-  <si>
-    <t>M3_1_TS1</t>
-  </si>
-  <si>
-    <t>M3_2_bra</t>
-  </si>
-  <si>
-    <t>M1_0_TS0</t>
-  </si>
-  <si>
-    <t>M2_0_TS0</t>
-  </si>
-  <si>
-    <t>M3_0_TS0</t>
-  </si>
-  <si>
     <t>Treatment Description</t>
   </si>
   <si>
@@ -820,6 +493,603 @@
   </si>
   <si>
     <t>Feeding Status</t>
+  </si>
+  <si>
+    <t>090320_XXX1</t>
+  </si>
+  <si>
+    <t>072920_XXX1</t>
+  </si>
+  <si>
+    <t>081220_XXX1</t>
+  </si>
+  <si>
+    <t>090320_XXX2</t>
+  </si>
+  <si>
+    <t>072920_XXX2</t>
+  </si>
+  <si>
+    <t>081220_XXX2</t>
+  </si>
+  <si>
+    <t>090320_XXX3</t>
+  </si>
+  <si>
+    <t>072920_XXX3</t>
+  </si>
+  <si>
+    <t>081220_XXX3</t>
+  </si>
+  <si>
+    <t>090320_XXX4</t>
+  </si>
+  <si>
+    <t>090320_XXX5</t>
+  </si>
+  <si>
+    <t>090320_XXX6</t>
+  </si>
+  <si>
+    <t>090320_XXX1_0_TS0_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX1_1_TS1_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX1_2_brain</t>
+  </si>
+  <si>
+    <t>090320_XXX1_3_quad</t>
+  </si>
+  <si>
+    <t>090320_XXX1_4_kid</t>
+  </si>
+  <si>
+    <t>090320_XXX1_5_liv</t>
+  </si>
+  <si>
+    <t>090320_XXX1_6_spl</t>
+  </si>
+  <si>
+    <t>090320_XXX1_7_panc</t>
+  </si>
+  <si>
+    <t>090320_XXX1_8_stom</t>
+  </si>
+  <si>
+    <t>090320_XXX1_9_lung</t>
+  </si>
+  <si>
+    <t>090320_XXX1_10_hea</t>
+  </si>
+  <si>
+    <t>090320_XXX1_11_thy</t>
+  </si>
+  <si>
+    <t>090320_XXX1_12_gWAT</t>
+  </si>
+  <si>
+    <t>090320_XXX1_13_iBAT</t>
+  </si>
+  <si>
+    <t>090320_XXX1_14_SI</t>
+  </si>
+  <si>
+    <t>090320_XXX1_15_ears</t>
+  </si>
+  <si>
+    <t>090320_XXX2_0_TS0_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX2_1_TS1_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX2_2_bra</t>
+  </si>
+  <si>
+    <t>090320_XXX2_3_quad</t>
+  </si>
+  <si>
+    <t>090320_XXX2_4_kid</t>
+  </si>
+  <si>
+    <t>090320_XXX2_5_liv</t>
+  </si>
+  <si>
+    <t>090320_XXX2_6_spl</t>
+  </si>
+  <si>
+    <t>090320_XXX2_7_panc_rr</t>
+  </si>
+  <si>
+    <t>090320_XXX2_8_stom_rr</t>
+  </si>
+  <si>
+    <t>090320_XXX2_9_lung</t>
+  </si>
+  <si>
+    <t>090320_XXX2_10_hea</t>
+  </si>
+  <si>
+    <t>090320_XXX2_11_thy</t>
+  </si>
+  <si>
+    <t>090320_XXX2_12_gWAT</t>
+  </si>
+  <si>
+    <t>090320_XXX2_13_iBAT</t>
+  </si>
+  <si>
+    <t>090320_XXX2_14_SI</t>
+  </si>
+  <si>
+    <t>090320_XXX2_15_ears</t>
+  </si>
+  <si>
+    <t>090320_XXX3_0_TS0_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX3_1_TS1_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX3_2_brain</t>
+  </si>
+  <si>
+    <t>090320_XXX3_3_quad</t>
+  </si>
+  <si>
+    <t>090320_XXX3_4_kid</t>
+  </si>
+  <si>
+    <t>090320_XXX3_5_liv</t>
+  </si>
+  <si>
+    <t>090320_XXX3_6_spl</t>
+  </si>
+  <si>
+    <t>090320_XXX3_7_panc</t>
+  </si>
+  <si>
+    <t>090320_XXX3_8_stom</t>
+  </si>
+  <si>
+    <t>090320_XXX3_9_lung</t>
+  </si>
+  <si>
+    <t>090320_XXX3_10_hea</t>
+  </si>
+  <si>
+    <t>090320_XXX3_11_thy</t>
+  </si>
+  <si>
+    <t>090320_XXX3_12_gWAT</t>
+  </si>
+  <si>
+    <t>090320_XXX3_13_iBAT</t>
+  </si>
+  <si>
+    <t>090320_XXX3_14_SI</t>
+  </si>
+  <si>
+    <t>090320_XXX3_15_ears</t>
+  </si>
+  <si>
+    <t>090320_XXX4_0_TS0_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX4_1_TS1_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX4_2_bra</t>
+  </si>
+  <si>
+    <t>090320_XXX4_3_quad</t>
+  </si>
+  <si>
+    <t>090320_XXX4_4_kid</t>
+  </si>
+  <si>
+    <t>090320_XXX4_5_liv</t>
+  </si>
+  <si>
+    <t>090320_XXX4_6_spl</t>
+  </si>
+  <si>
+    <t>090320_XXX4_7_panc</t>
+  </si>
+  <si>
+    <t>090320_XXX4_8_stom</t>
+  </si>
+  <si>
+    <t>090320_XXX4_9_lung</t>
+  </si>
+  <si>
+    <t>090320_XXX4_10_hea</t>
+  </si>
+  <si>
+    <t>090320_XXX4_11_thy</t>
+  </si>
+  <si>
+    <t>090320_XXX4_12_gWAT</t>
+  </si>
+  <si>
+    <t>090320_XXX4_13_iBAT</t>
+  </si>
+  <si>
+    <t>090320_XXX4_14_SI</t>
+  </si>
+  <si>
+    <t>090320_XXX4_15_ears</t>
+  </si>
+  <si>
+    <t>090320_XXX5_0_TS0_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX5_1_TS1_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX5_2_brain</t>
+  </si>
+  <si>
+    <t>090320_XXX5_3_quad</t>
+  </si>
+  <si>
+    <t>090320_XXX5_4_kid</t>
+  </si>
+  <si>
+    <t>090320_XXX5_5_liv</t>
+  </si>
+  <si>
+    <t>090320_XXX5_6_spl</t>
+  </si>
+  <si>
+    <t>090320_XXX5_7_panc</t>
+  </si>
+  <si>
+    <t>090320_XXX5_8_stom</t>
+  </si>
+  <si>
+    <t>090320_XXX5_9_lung</t>
+  </si>
+  <si>
+    <t>090320_XXX5_10_hea</t>
+  </si>
+  <si>
+    <t>090320_XXX5_11_thy</t>
+  </si>
+  <si>
+    <t>090320_XXX5_12_gWAT</t>
+  </si>
+  <si>
+    <t>090320_XXX5_13_iBAT</t>
+  </si>
+  <si>
+    <t>090320_XXX5_14_SI</t>
+  </si>
+  <si>
+    <t>090320_XXX5_15_ears</t>
+  </si>
+  <si>
+    <t>090320_XXX6_0_TS0_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX6_1_TS1_10ul</t>
+  </si>
+  <si>
+    <t>090320_XXX6_2_bra</t>
+  </si>
+  <si>
+    <t>090320_XXX6_3_quad</t>
+  </si>
+  <si>
+    <t>090320_XXX6_4_kid</t>
+  </si>
+  <si>
+    <t>090320_XXX6_5_liv</t>
+  </si>
+  <si>
+    <t>090320_XXX6_6_spl</t>
+  </si>
+  <si>
+    <t>090320_XXX6_7_panc</t>
+  </si>
+  <si>
+    <t>090320_XXX6_8_stom</t>
+  </si>
+  <si>
+    <t>090320_XXX6_9_lung</t>
+  </si>
+  <si>
+    <t>090320_XXX6_10_hea</t>
+  </si>
+  <si>
+    <t>090320_XXX6_11_thy</t>
+  </si>
+  <si>
+    <t>090320_XXX6_12_gWAT</t>
+  </si>
+  <si>
+    <t>090320_XXX6_13_iBAT</t>
+  </si>
+  <si>
+    <t>090320_XXX6_14_SI</t>
+  </si>
+  <si>
+    <t>090320_XXX6_15_ears</t>
+  </si>
+  <si>
+    <t>072920_XXX1_1_TS1</t>
+  </si>
+  <si>
+    <t>072920_XXX1_2_bra</t>
+  </si>
+  <si>
+    <t>072920_XXX1_3_quad</t>
+  </si>
+  <si>
+    <t>072920_XXX1_4_kid</t>
+  </si>
+  <si>
+    <t>072920_XXX1_5_liv</t>
+  </si>
+  <si>
+    <t>072920_XXX1_6_spl</t>
+  </si>
+  <si>
+    <t>072920_XXX1_7_panc</t>
+  </si>
+  <si>
+    <t>072920_XXX1_8_stom</t>
+  </si>
+  <si>
+    <t>072920_XXX1_9_lung</t>
+  </si>
+  <si>
+    <t>072920_XXX1_10_hea</t>
+  </si>
+  <si>
+    <t>072920_XXX1_11_thy</t>
+  </si>
+  <si>
+    <t>072920_XXX1_12_gWAT</t>
+  </si>
+  <si>
+    <t>072920_XXX1_13_iBAT</t>
+  </si>
+  <si>
+    <t>072920_XXX1_14_SI</t>
+  </si>
+  <si>
+    <t>072920_XXX1_15_ears</t>
+  </si>
+  <si>
+    <t>072920_XXX2_1_TS1</t>
+  </si>
+  <si>
+    <t>072920_XXX2_2_bra</t>
+  </si>
+  <si>
+    <t>072920_XXX2_3_quad</t>
+  </si>
+  <si>
+    <t>072920_XXX2_4_kid</t>
+  </si>
+  <si>
+    <t>072920_XXX2_5_liv</t>
+  </si>
+  <si>
+    <t>072920_XXX2_6_spl</t>
+  </si>
+  <si>
+    <t>072920_XXX2_7_panc</t>
+  </si>
+  <si>
+    <t>072920_XXX2_8_stom</t>
+  </si>
+  <si>
+    <t>072920_XXX2_9_lung</t>
+  </si>
+  <si>
+    <t>072920_XXX2_10_hea</t>
+  </si>
+  <si>
+    <t>072920_XXX2_11_thy</t>
+  </si>
+  <si>
+    <t>072920_XXX2_12_gWAT</t>
+  </si>
+  <si>
+    <t>072920_XXX2_14_SI</t>
+  </si>
+  <si>
+    <t>072920_XXX2_15_ears</t>
+  </si>
+  <si>
+    <t>072920_XXX3_1_TS1</t>
+  </si>
+  <si>
+    <t>072920_XXX3_2_bra</t>
+  </si>
+  <si>
+    <t>072920_XXX3_3_quad</t>
+  </si>
+  <si>
+    <t>072920_XXX3_4_kid</t>
+  </si>
+  <si>
+    <t>072920_XXX3_5_liv</t>
+  </si>
+  <si>
+    <t>072920_XXX3_7_panc</t>
+  </si>
+  <si>
+    <t>072920_XXX3_8_stom</t>
+  </si>
+  <si>
+    <t>072920_XXX3_9_lung</t>
+  </si>
+  <si>
+    <t>072920_XXX3_10_hea</t>
+  </si>
+  <si>
+    <t>072920_XXX3_11_thy</t>
+  </si>
+  <si>
+    <t>072920_XXX3_12_gWAT</t>
+  </si>
+  <si>
+    <t>072920_XXX3_13_iBAT</t>
+  </si>
+  <si>
+    <t>072920_XXX3_14_SI</t>
+  </si>
+  <si>
+    <t>072920_XXX3_15_ears</t>
+  </si>
+  <si>
+    <t>081220_XXX1_0_TS0</t>
+  </si>
+  <si>
+    <t>081220_XXX1_1_TS1</t>
+  </si>
+  <si>
+    <t>081220_XXX1_2_bra</t>
+  </si>
+  <si>
+    <t>081220_XXX1_3_quad</t>
+  </si>
+  <si>
+    <t>081220_XXX1_4_kid</t>
+  </si>
+  <si>
+    <t>081220_XXX1_5_liv</t>
+  </si>
+  <si>
+    <t>081220_XXX1_6_spl</t>
+  </si>
+  <si>
+    <t>081220_XXX1_7_panc</t>
+  </si>
+  <si>
+    <t>081220_XXX1_8_stom</t>
+  </si>
+  <si>
+    <t>081220_XXX1_9_lung</t>
+  </si>
+  <si>
+    <t>081220_XXX1_10_hea</t>
+  </si>
+  <si>
+    <t>081220_XXX1_11_thy</t>
+  </si>
+  <si>
+    <t>081220_XXX1_12_gWAT</t>
+  </si>
+  <si>
+    <t>081220_XXX1_13_iBAT</t>
+  </si>
+  <si>
+    <t>081220_XXX1_14_SI</t>
+  </si>
+  <si>
+    <t>081220_XXX1_15_ears</t>
+  </si>
+  <si>
+    <t>081220_XXX2_0_TS0</t>
+  </si>
+  <si>
+    <t>081220_XXX2_1_TS1</t>
+  </si>
+  <si>
+    <t>081220_XXX2_2_bra</t>
+  </si>
+  <si>
+    <t>081220_XXX2_3_quad</t>
+  </si>
+  <si>
+    <t>081220_XXX2_4_kid</t>
+  </si>
+  <si>
+    <t>081220_XXX2_5_liv</t>
+  </si>
+  <si>
+    <t>081220_XXX2_6_spl</t>
+  </si>
+  <si>
+    <t>081220_XXX2_7_panc</t>
+  </si>
+  <si>
+    <t>081220_XXX2_8_stom</t>
+  </si>
+  <si>
+    <t>081220_XXX2_9_lung</t>
+  </si>
+  <si>
+    <t>081220_XXX2_10_hea</t>
+  </si>
+  <si>
+    <t>081220_XXX2_11_thy</t>
+  </si>
+  <si>
+    <t>081220_XXX2_12_gWAT</t>
+  </si>
+  <si>
+    <t>081220_XXX2_13_iBAT</t>
+  </si>
+  <si>
+    <t>081220_XXX2_14_SI</t>
+  </si>
+  <si>
+    <t>081220_XXX2_15_ears</t>
+  </si>
+  <si>
+    <t>081220_XXX3_0_TS0</t>
+  </si>
+  <si>
+    <t>081220_XXX3_1_TS1</t>
+  </si>
+  <si>
+    <t>081220_XXX3_2_bra</t>
+  </si>
+  <si>
+    <t>081220_XXX3_3_quad</t>
+  </si>
+  <si>
+    <t>081220_XXX3_4_kid</t>
+  </si>
+  <si>
+    <t>081220_XXX3_5_liv</t>
+  </si>
+  <si>
+    <t>081220_XXX3_6_spl</t>
+  </si>
+  <si>
+    <t>081220_XXX3_7_panc</t>
+  </si>
+  <si>
+    <t>081220_XXX3_8_stom</t>
+  </si>
+  <si>
+    <t>081220_XXX3_9_lung</t>
+  </si>
+  <si>
+    <t>081220_XXX3_10_hea</t>
+  </si>
+  <si>
+    <t>081220_XXX3_11_thy</t>
+  </si>
+  <si>
+    <t>081220_XXX3_12_gWAT</t>
+  </si>
+  <si>
+    <t>081220_XXX3_13_iBAT</t>
+  </si>
+  <si>
+    <t>081220_XXX3_14_SI</t>
+  </si>
+  <si>
+    <t>081220_XXX3_15_ears</t>
   </si>
 </sst>
 </file>
@@ -842,13 +1112,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -884,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -898,6 +1168,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1242,36 +1513,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>33.1</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -1280,27 +1551,27 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>29.5</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -1309,27 +1580,27 @@
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>28.1</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -1338,27 +1609,27 @@
         <v>800</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>14</v>
+      <c r="A5" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>26.5</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -1367,27 +1638,27 @@
         <v>800</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>32.5</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1396,27 +1667,27 @@
         <v>800</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>26.1</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1425,27 +1696,27 @@
         <v>800</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
+      <c r="A8" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>28.4</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1454,27 +1725,27 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>33.299999999999997</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -1483,27 +1754,27 @@
         <v>800</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
+      <c r="A10" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -1512,27 +1783,27 @@
         <v>800</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>20</v>
+      <c r="A11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>27.2</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -1541,27 +1812,27 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>21</v>
+      <c r="A12" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>35.799999999999997</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0.1</v>
@@ -1570,27 +1841,27 @@
         <v>800</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>22</v>
+      <c r="A13" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>24.2</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0.1</v>
@@ -1599,13 +1870,13 @@
         <v>800</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1619,18 +1890,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" activeCellId="12" sqref="D5 D21 D37 D53 D69 D85 D100 D115 D129 D144 D160 D176 D46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
@@ -1644,19 +1916,19 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1678,22 +1950,22 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6">
         <v>44077</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1708,22 +1980,22 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6">
         <v>44077</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1738,22 +2010,22 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6">
         <v>44077</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1768,22 +2040,22 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6">
         <v>44077</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1798,22 +2070,22 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6">
         <v>44077</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1828,22 +2100,22 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6">
         <v>44077</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1858,22 +2130,22 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6">
         <v>44077</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1888,22 +2160,22 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6">
         <v>44077</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1918,22 +2190,22 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6">
         <v>44077</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1948,22 +2220,22 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B11" s="6">
         <v>44077</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1978,22 +2250,22 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B12" s="6">
         <v>44077</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2008,22 +2280,22 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B13" s="6">
         <v>44077</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2038,22 +2310,22 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6">
         <v>44077</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2068,22 +2340,22 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B15" s="6">
         <v>44077</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2098,22 +2370,22 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B16" s="6">
         <v>44077</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2128,22 +2400,22 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B17" s="6">
         <v>44077</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2158,22 +2430,22 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6">
         <v>44077</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2188,22 +2460,22 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B19" s="6">
         <v>44077</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2218,22 +2490,22 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6">
         <v>44077</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2248,22 +2520,22 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6">
         <v>44077</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2278,22 +2550,22 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6">
         <v>44077</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2308,22 +2580,22 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B23" s="6">
         <v>44077</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2338,22 +2610,22 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6">
         <v>44077</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2368,22 +2640,22 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B25" s="6">
         <v>44077</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2398,22 +2670,22 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6">
         <v>44077</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2428,22 +2700,22 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B27" s="6">
         <v>44077</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2458,22 +2730,22 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B28" s="6">
         <v>44077</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2488,22 +2760,22 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B29" s="6">
         <v>44077</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2518,22 +2790,22 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B30" s="6">
         <v>44077</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2548,22 +2820,22 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B31" s="6">
         <v>44077</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2578,22 +2850,22 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B32" s="6">
         <v>44077</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2608,22 +2880,22 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B33" s="6">
         <v>44077</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2638,22 +2910,22 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B34" s="6">
         <v>44077</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2668,22 +2940,22 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B35" s="6">
         <v>44077</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2698,22 +2970,22 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B36" s="6">
         <v>44077</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2728,22 +3000,22 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B37" s="6">
         <v>44077</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2758,22 +3030,22 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B38" s="6">
         <v>44077</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2788,22 +3060,22 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B39" s="6">
         <v>44077</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2818,22 +3090,22 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6">
         <v>44077</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2848,22 +3120,22 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B41" s="6">
         <v>44077</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2878,22 +3150,22 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="6">
         <v>44077</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2908,22 +3180,22 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B43" s="6">
         <v>44077</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2938,22 +3210,22 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B44" s="6">
         <v>44077</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2968,22 +3240,22 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B45" s="6">
         <v>44077</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2998,22 +3270,22 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B46" s="6">
         <v>44077</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3028,22 +3300,22 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B47" s="6">
         <v>44077</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3058,22 +3330,22 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B48" s="6">
         <v>44077</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3088,22 +3360,22 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B49" s="6">
         <v>44077</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3118,22 +3390,22 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B50" s="6">
         <v>44077</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3148,22 +3420,22 @@
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="6">
         <v>44077</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3178,22 +3450,22 @@
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B52" s="6">
         <v>44077</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3208,22 +3480,22 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B53" s="6">
         <v>44077</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3238,22 +3510,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B54" s="6">
         <v>44077</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3268,22 +3540,22 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B55" s="6">
         <v>44077</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -3298,22 +3570,22 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B56" s="6">
         <v>44077</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -3328,22 +3600,22 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B57" s="6">
         <v>44077</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3358,22 +3630,22 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B58" s="6">
         <v>44077</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -3388,22 +3660,22 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B59" s="6">
         <v>44077</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -3418,22 +3690,22 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B60" s="6">
         <v>44077</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3448,22 +3720,22 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B61" s="6">
         <v>44077</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -3478,22 +3750,22 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B62" s="6">
         <v>44077</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -3508,22 +3780,22 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B63" s="6">
         <v>44077</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -3538,22 +3810,22 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B64" s="6">
         <v>44077</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3568,22 +3840,22 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B65" s="6">
         <v>44077</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3598,22 +3870,22 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B66" s="6">
         <v>44077</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3628,22 +3900,22 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B67" s="6">
         <v>44077</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3658,22 +3930,22 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6">
         <v>44077</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -3688,22 +3960,22 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B69" s="6">
         <v>44077</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -3718,22 +3990,22 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B70" s="6">
         <v>44077</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -3748,22 +4020,22 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B71" s="6">
         <v>44077</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -3778,22 +4050,22 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B72" s="6">
         <v>44077</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3808,22 +4080,22 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B73" s="6">
         <v>44077</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -3838,22 +4110,22 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B74" s="6">
         <v>44077</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3868,22 +4140,22 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B75" s="6">
         <v>44077</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3898,22 +4170,22 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B76" s="6">
         <v>44077</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3928,22 +4200,22 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B77" s="6">
         <v>44077</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E77" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -3958,22 +4230,22 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B78" s="6">
         <v>44077</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -3988,22 +4260,22 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B79" s="6">
         <v>44077</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -4018,22 +4290,22 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B80" s="6">
         <v>44077</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -4048,22 +4320,22 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B81" s="6">
         <v>44077</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -4078,22 +4350,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B82" s="6">
         <v>44077</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -4108,22 +4380,22 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B83" s="6">
         <v>44077</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -4138,22 +4410,22 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B84" s="6">
         <v>44077</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -4168,22 +4440,22 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B85" s="6">
         <v>44077</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -4198,22 +4470,22 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B86" s="6">
         <v>44077</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -4228,22 +4500,22 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B87" s="6">
         <v>44077</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -4258,22 +4530,22 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B88" s="6">
         <v>44077</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -4288,22 +4560,22 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B89" s="6">
         <v>44077</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -4318,22 +4590,22 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B90" s="6">
         <v>44077</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -4348,22 +4620,22 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B91" s="6">
         <v>44077</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -4378,22 +4650,22 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B92" s="6">
         <v>44077</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -4408,22 +4680,22 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B93" s="6">
         <v>44077</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -4438,22 +4710,22 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B94" s="6">
         <v>44077</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -4468,22 +4740,22 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B95" s="6">
         <v>44077</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -4498,22 +4770,22 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B96" s="6">
         <v>44077</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -4528,22 +4800,22 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B97" s="6">
         <v>44077</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -4558,22 +4830,22 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B98" s="6">
         <v>44041</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -4588,22 +4860,22 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B99" s="6">
         <v>44041</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -4618,22 +4890,22 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B100" s="6">
         <v>44041</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -4648,22 +4920,22 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B101" s="6">
         <v>44041</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -4678,22 +4950,22 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B102" s="6">
         <v>44041</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -4708,22 +4980,22 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="B103" s="6">
         <v>44041</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -4738,22 +5010,22 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="B104" s="6">
         <v>44041</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4768,22 +5040,22 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B105" s="6">
         <v>44041</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -4798,22 +5070,22 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B106" s="6">
         <v>44041</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -4828,22 +5100,22 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="B107" s="6">
         <v>44041</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -4858,22 +5130,22 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="B108" s="6">
         <v>44041</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E108" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -4888,22 +5160,22 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B109" s="6">
         <v>44041</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -4918,22 +5190,22 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="B110" s="6">
         <v>44041</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -4948,22 +5220,22 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B111" s="6">
         <v>44041</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -4978,22 +5250,22 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B112" s="6">
         <v>44041</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -5008,22 +5280,22 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B113" s="6">
         <v>44041</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -5038,22 +5310,22 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B114" s="6">
         <v>44041</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -5068,22 +5340,22 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B115" s="6">
         <v>44041</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -5098,22 +5370,22 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B116" s="6">
         <v>44041</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -5128,22 +5400,22 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B117" s="6">
         <v>44041</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
@@ -5158,22 +5430,22 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B118" s="6">
         <v>44041</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -5188,22 +5460,22 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B119" s="6">
         <v>44041</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -5218,22 +5490,22 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B120" s="6">
         <v>44041</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -5248,22 +5520,22 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="B121" s="6">
         <v>44041</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -5278,22 +5550,22 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="B122" s="6">
         <v>44041</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -5308,22 +5580,22 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="B123" s="6">
         <v>44041</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E123" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -5338,22 +5610,22 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="B124" s="6">
         <v>44041</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -5368,22 +5640,22 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="B125" s="6">
         <v>44041</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -5398,22 +5670,22 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B126" s="6">
         <v>44041</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -5428,22 +5700,22 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B127" s="6">
         <v>44041</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -5458,22 +5730,22 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B128" s="6">
         <v>44041</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -5488,22 +5760,22 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B129" s="6">
         <v>44041</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -5518,22 +5790,22 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B130" s="6">
         <v>44041</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -5548,22 +5820,22 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="B131" s="6">
         <v>44041</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -5578,22 +5850,22 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="B132" s="6">
         <v>44041</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -5608,22 +5880,22 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="B133" s="6">
         <v>44041</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -5638,22 +5910,22 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B134" s="6">
         <v>44041</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D134" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -5668,22 +5940,22 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="B135" s="6">
         <v>44041</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -5698,22 +5970,22 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="B136" s="6">
         <v>44041</v>
       </c>
       <c r="C136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E136" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -5728,22 +6000,22 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="B137" s="6">
         <v>44041</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -5758,22 +6030,22 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="B138" s="6">
         <v>44041</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -5788,22 +6060,22 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="B139" s="6">
         <v>44041</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -5818,22 +6090,22 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="B140" s="6">
         <v>44041</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -5848,22 +6120,22 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="B141" s="6">
         <v>44055</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
@@ -5878,22 +6150,22 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="B142" s="6">
         <v>44055</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
@@ -5908,22 +6180,22 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B143" s="6">
         <v>44055</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
@@ -5938,22 +6210,22 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="B144" s="6">
         <v>44055</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
@@ -5968,22 +6240,22 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="B145" s="6">
         <v>44055</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -5998,22 +6270,22 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B146" s="6">
         <v>44055</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
@@ -6028,22 +6300,22 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="B147" s="6">
         <v>44055</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -6058,22 +6330,22 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="B148" s="6">
         <v>44055</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
@@ -6088,22 +6360,22 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="B149" s="6">
         <v>44055</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -6118,22 +6390,22 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B150" s="6">
         <v>44055</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
@@ -6148,22 +6420,22 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B151" s="6">
         <v>44055</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
@@ -6178,22 +6450,22 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="B152" s="6">
         <v>44055</v>
       </c>
       <c r="C152" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E152" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
@@ -6208,22 +6480,22 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="B153" s="6">
         <v>44055</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
@@ -6238,22 +6510,22 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="B154" s="6">
         <v>44055</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
@@ -6268,22 +6540,22 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="B155" s="6">
         <v>44055</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
@@ -6298,22 +6570,22 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="B156" s="6">
         <v>44055</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
@@ -6328,22 +6600,22 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B157" s="6">
         <v>44055</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
@@ -6358,22 +6630,22 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="B158" s="6">
         <v>44055</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -6388,22 +6660,22 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="B159" s="6">
         <v>44055</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -6418,22 +6690,22 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="B160" s="6">
         <v>44055</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
@@ -6448,22 +6720,22 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="B161" s="6">
         <v>44055</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
@@ -6478,22 +6750,22 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="B162" s="6">
         <v>44055</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
@@ -6508,22 +6780,22 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="B163" s="6">
         <v>44055</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
@@ -6538,22 +6810,22 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="B164" s="6">
         <v>44055</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
@@ -6568,22 +6840,22 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="B165" s="6">
         <v>44055</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D165" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
@@ -6598,22 +6870,22 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="B166" s="6">
         <v>44055</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
@@ -6628,22 +6900,22 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="B167" s="6">
         <v>44055</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
@@ -6658,22 +6930,22 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="B168" s="6">
         <v>44055</v>
       </c>
       <c r="C168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E168" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
@@ -6688,22 +6960,22 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="B169" s="6">
         <v>44055</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
@@ -6718,22 +6990,22 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="B170" s="6">
         <v>44055</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
@@ -6748,22 +7020,22 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="B171" s="6">
         <v>44055</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
@@ -6778,22 +7050,22 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B172" s="6">
         <v>44055</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
@@ -6808,22 +7080,22 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="B173" s="6">
         <v>44055</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
@@ -6838,22 +7110,22 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="B174" s="6">
         <v>44055</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
@@ -6868,22 +7140,22 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="B175" s="6">
         <v>44055</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
@@ -6898,22 +7170,22 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="B176" s="6">
         <v>44055</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -6928,22 +7200,22 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="B177" s="6">
         <v>44055</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -6958,22 +7230,22 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="B178" s="6">
         <v>44055</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -6988,22 +7260,22 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="B179" s="6">
         <v>44055</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -7018,22 +7290,22 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="B180" s="6">
         <v>44055</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -7048,22 +7320,22 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="B181" s="6">
         <v>44055</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -7078,22 +7350,22 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="B182" s="6">
         <v>44055</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -7108,22 +7380,22 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="B183" s="6">
         <v>44055</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -7138,22 +7410,22 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="B184" s="6">
         <v>44055</v>
       </c>
       <c r="C184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D184" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E184" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -7168,22 +7440,22 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="B185" s="6">
         <v>44055</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -7198,22 +7470,22 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="B186" s="6">
         <v>44055</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -7228,22 +7500,22 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="B187" s="6">
         <v>44055</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -7258,22 +7530,22 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="B188" s="6">
         <v>44055</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -21935,7 +22207,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -21964,18 +22236,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
